--- a/biology/Botanique/Triticeae/Triticeae.xlsx
+++ b/biology/Botanique/Triticeae/Triticeae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Triticeae sont une tribu de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae.
 Cette tribu comprend différents genres de plantes herbacée, dont de nombreuses espèces ont été domestiquées. 
@@ -517,10 +529,48 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Soreng et al (A worldwide phylogenetic classification of the Poaceae (Gramineae), 2015)[2], la tribu des Triticeae regroupe  503 espèces réparties en 27 genres, eux-mêmes classés dans deux sous-tribus, les Hordeinae (22 genres, 448 espèces) et les Triticinae (5 genres, 45 espèces). A ces genres s'ajoutent une vingtaine de nothogenres (hybrides intergénériques).
-Sous-tribu des Hordeinae
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Soreng et al (A worldwide phylogenetic classification of the Poaceae (Gramineae), 2015), la tribu des Triticeae regroupe  503 espèces réparties en 27 genres, eux-mêmes classés dans deux sous-tribus, les Hordeinae (22 genres, 448 espèces) et les Triticinae (5 genres, 45 espèces). A ces genres s'ajoutent une vingtaine de nothogenres (hybrides intergénériques).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Triticeae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Triticeae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Hordeinae</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Agropyron
 Anthosachne
 Australopyrum
@@ -543,7 +593,43 @@
 Secale
 Stenostachys
 Taeniatherum
-Sous-tribu des Triticinae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Triticeae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Triticeae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Triticinae</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aegilops
 Amblyopyrum
 Dasypyrum
@@ -554,67 +640,310 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Triticeae</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Triticeae</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Triticeae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Triticeae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Espèces cultivées ou comestibles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Aegilops
-Diverses espèces (rarement identifiables précisément dans les restes archéologiques) sont présentes dans les vestiges archéobotaniques pré-agrariens provenant de sites du Moyen-Orient. Leurs grains comestibles étaient sans aucun doute récoltés comme ressource alimentaire de cueillette.
-Aegilops speltoides - ancienne graine alimentaire, source présumée du génome B chez le blé tendre et du génome G chez Triticum timopheevii[3].
-Aegilops tauschii - Source de génome D chez le blé.
-Amblyopyrum
-Amblyopyrum muticum - Source du génome T.
-Elymus
-Diverses espèces sont cultivées comme plantes fourragères ou pour protéger les jachères contre les espèces opportunistes ou envahissantes.
-Elymus canadensis - comestible, apte à la production de farine, graines minuscules[4].
-Elymus trachycaulus - cultivars fourragers[5].
-Hordeum (orges)
-Hordeum vulgare - orge commune (6 sous-espèces, environ 100 cultivars)
-Hordeum bulbosum (orge bulbeuse) - graines comestibles[6].
-Hordeum murinum (orge des rats) - apte à la production de farine, cuisiné comme le pinole, usage médicinal (diurétique)[7].
-Leymus
-Leymus arenarius (blé d'azur) - apte à la production de farine, additif alimentaire possible[8].
-Leymus racemosus - céréale tolérante à la sécheresse, utilisée en Russie[9].
-Leymus condensatus  - graines comestibles, récolte problématique des petites graines[10].
-Leymus triticoides  - utilisée en Amérique du Nord, les poils des graines doivent être brûlés[11].
-Secale (seigles)
-Secale cereale (seigle) - alimentation animale et pain au levain - six sous-espèces.
-Secale strictum - activement cultivé[12].
-Secale sylvestre - activement cultivé dans les montagnes du Tibet et de Chine[13].
-Secale vavilovii - graines comestibles, épaississant[14].
-Thynopurum
-Thinopyrum intermedium cultivé, utilisable en fourrage et pour la consommation humaine
-Triticum (blés)
-Triticum aestivum (blé tendre) - (génome AABBDD).
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Aegilops</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Diverses espèces (rarement identifiables précisément dans les restes archéologiques) sont présentes dans les vestiges archéobotaniques pré-agrariens provenant de sites du Moyen-Orient. Leurs grains comestibles étaient sans aucun doute récoltés comme ressource alimentaire de cueillette.
+Aegilops speltoides - ancienne graine alimentaire, source présumée du génome B chez le blé tendre et du génome G chez Triticum timopheevii.
+Aegilops tauschii - Source de génome D chez le blé.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Triticeae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Triticeae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Espèces cultivées ou comestibles</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Amblyopyrum</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Amblyopyrum muticum - Source du génome T.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Triticeae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Triticeae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Espèces cultivées ou comestibles</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Elymus</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Diverses espèces sont cultivées comme plantes fourragères ou pour protéger les jachères contre les espèces opportunistes ou envahissantes.
+Elymus canadensis - comestible, apte à la production de farine, graines minuscules.
+Elymus trachycaulus - cultivars fourragers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Triticeae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Triticeae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Espèces cultivées ou comestibles</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Hordeum (orges)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Hordeum vulgare - orge commune (6 sous-espèces, environ 100 cultivars)
+Hordeum bulbosum (orge bulbeuse) - graines comestibles.
+Hordeum murinum (orge des rats) - apte à la production de farine, cuisiné comme le pinole, usage médicinal (diurétique).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Triticeae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Triticeae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Espèces cultivées ou comestibles</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Leymus</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Leymus arenarius (blé d'azur) - apte à la production de farine, additif alimentaire possible.
+Leymus racemosus - céréale tolérante à la sécheresse, utilisée en Russie.
+Leymus condensatus  - graines comestibles, récolte problématique des petites graines.
+Leymus triticoides  - utilisée en Amérique du Nord, les poils des graines doivent être brûlés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Triticeae</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Triticeae</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Espèces cultivées ou comestibles</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Secale (seigles)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Secale cereale (seigle) - alimentation animale et pain au levain - six sous-espèces.
+Secale strictum - activement cultivé.
+Secale sylvestre - activement cultivé dans les montagnes du Tibet et de Chine.
+Secale vavilovii - graines comestibles, épaississant.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Triticeae</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Triticeae</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Espèces cultivées ou comestibles</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Thynopurum</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Thinopyrum intermedium cultivé, utilisable en fourrage et pour la consommation humaine</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Triticeae</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Triticeae</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Espèces cultivées ou comestibles</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Triticum (blés)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Triticum aestivum (blé tendre) - (génome AABBDD).
 Triticum compactum (blé compact).
 Triticum macha  (blé macha, vêtu).
 Triticum spelta (épeautre, vêtu).
 Triticum sphaerococcum (blé indien).
 Triticum monococcum (engrain) (génome A).
 Triticum timopheevii (blé zanduri).
-Triticum turgidum (blé poulard) (génome AABB)[15].
+Triticum turgidum (blé poulard) (génome AABB).
 Triticum carthlicum (blé de perse).
 Triticum dicoccoides (amidonnier sauvage)
 Triticum dicoccum (amidonnier cultivé) - utilisé pour préparer le farro.
